--- a/biology/Médecine/Roger_Vittoz/Roger_Vittoz.xlsx
+++ b/biology/Médecine/Roger_Vittoz/Roger_Vittoz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Roger Vittoz, né le 6 mai 1863 à Morges et mort le 10 avril 1925 à Lausanne, est un médecin suisse. Il est l'un des premiers psychosomaticiens.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études aux universités de Lausanne et de Genève[1], il obtient son diplôme de médecin en 1886. Après deux ans de pratique en hôpital à Lausanne, il s'installe à La Brévine, à la campagne, puis aux Verrières[2]. À cette époque, bien que simple généraliste, il était déjà renommé comme « médecin des nerveux », et pratiquait l'hypnose, apprise sous la direction du professeur Auguste Forel.
-En 1904, il s'installe à Lausanne et, en 1906, il affirme découvrir les « vibrations »[3] qui, connues sous le nom « d'onde Vittoz », lui permettront la mise au point d'une méthode diagnostique[réf. nécessaire]. En 1910, sa méthode de rééducation du contrôle cérébral est au point, et il publie en 1911 le traité « Traitement des psychonévroses par la rééducation du contrôle cérébral »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études aux universités de Lausanne et de Genève, il obtient son diplôme de médecin en 1886. Après deux ans de pratique en hôpital à Lausanne, il s'installe à La Brévine, à la campagne, puis aux Verrières. À cette époque, bien que simple généraliste, il était déjà renommé comme « médecin des nerveux », et pratiquait l'hypnose, apprise sous la direction du professeur Auguste Forel.
+En 1904, il s'installe à Lausanne et, en 1906, il affirme découvrir les « vibrations » qui, connues sous le nom « d'onde Vittoz », lui permettront la mise au point d'une méthode diagnostique[réf. nécessaire]. En 1910, sa méthode de rééducation du contrôle cérébral est au point, et il publie en 1911 le traité « Traitement des psychonévroses par la rééducation du contrôle cérébral ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traitement des psychonévroses par la rééducation du contrôle cérébral, 1911, lire en ligne sur Gallica, réédition 1992 Pierre Téqui ou 1999 Desclée de Brouwer  (ISBN 9782740300732)
 Notes et pensées : Angoisse ou contrôle, édition posthume 1955 ?, réédition 1992, Pierre Téqui, 179 pages, avant-propos d'Henri Baruk  (ISBN 9782740300725)</t>
